--- a/new_data/TWII/TWII_2018/TWII_2018.xlsx
+++ b/new_data/TWII/TWII_2018/TWII_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\TWII\TWII_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9ED2BA-555C-4D15-A080-0FFE2E5CD07D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6801E5BE-88DE-4F8D-AE52-0914CB68796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="4665" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -606,22 +606,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="10"/>
-    <col min="8" max="8" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
+    <col min="8" max="8" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>18</v>
@@ -642,7 +642,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -712,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -777,7 +777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -803,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -816,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -873,7 +873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -907,7 +907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -920,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -959,7 +959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -972,7 +972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -995,7 +995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1021,12 +1021,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H26" s="10" t="s">
         <v>30</v>
       </c>
